--- a/Excel-XLSX/UN-YEM.xlsx
+++ b/Excel-XLSX/UN-YEM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="858">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>b9hL26</t>
+    <t>7WvcD2</t>
   </si>
   <si>
     <t>1977</t>
@@ -2532,49 +2532,64 @@
     <t>457</t>
   </si>
   <si>
+    <t>467</t>
+  </si>
+  <si>
+    <t>478</t>
+  </si>
+  <si>
+    <t>459</t>
+  </si>
+  <si>
+    <t>4235</t>
+  </si>
+  <si>
+    <t>11820</t>
+  </si>
+  <si>
+    <t>460</t>
+  </si>
+  <si>
+    <t>461</t>
+  </si>
+  <si>
+    <t>462</t>
+  </si>
+  <si>
+    <t>968</t>
+  </si>
+  <si>
+    <t>464</t>
+  </si>
+  <si>
+    <t>465</t>
+  </si>
+  <si>
+    <t>466</t>
+  </si>
+  <si>
+    <t>38231</t>
+  </si>
+  <si>
+    <t>1547</t>
+  </si>
+  <si>
+    <t>756</t>
+  </si>
+  <si>
+    <t>468</t>
+  </si>
+  <si>
+    <t>2421</t>
+  </si>
+  <si>
     <t>469</t>
   </si>
   <si>
-    <t>4180</t>
-  </si>
-  <si>
-    <t>11030</t>
-  </si>
-  <si>
-    <t>459</t>
-  </si>
-  <si>
-    <t>460</t>
-  </si>
-  <si>
-    <t>461</t>
-  </si>
-  <si>
-    <t>973</t>
-  </si>
-  <si>
-    <t>462</t>
-  </si>
-  <si>
-    <t>464</t>
-  </si>
-  <si>
-    <t>38878</t>
-  </si>
-  <si>
-    <t>465</t>
-  </si>
-  <si>
-    <t>466</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>467</t>
-  </si>
-  <si>
-    <t>468</t>
+    <t>470</t>
+  </si>
+  <si>
+    <t>4795983</t>
   </si>
 </sst>
 </file>
@@ -2959,7 +2974,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V469"/>
+  <dimension ref="A1:V471"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -33951,7 +33966,7 @@
         <v>45</v>
       </c>
       <c r="O456" s="2" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="P456" s="2" t="s">
         <v>33</v>
@@ -33992,16 +34007,16 @@
         <v>835</v>
       </c>
       <c r="F457" s="2" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="G457" s="1" t="s">
-        <v>261</v>
+        <v>705</v>
       </c>
       <c r="H457" s="1" t="s">
-        <v>262</v>
+        <v>706</v>
       </c>
       <c r="I457" s="1" t="s">
-        <v>263</v>
+        <v>706</v>
       </c>
       <c r="J457" s="2" t="s">
         <v>29</v>
@@ -34016,10 +34031,10 @@
         <v>31</v>
       </c>
       <c r="N457" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O457" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="O457" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="P457" s="2" t="s">
         <v>33</v>
@@ -34060,16 +34075,16 @@
         <v>835</v>
       </c>
       <c r="F458" s="2" t="s">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="G458" s="1" t="s">
-        <v>124</v>
+        <v>261</v>
       </c>
       <c r="H458" s="1" t="s">
-        <v>125</v>
+        <v>262</v>
       </c>
       <c r="I458" s="1" t="s">
-        <v>126</v>
+        <v>263</v>
       </c>
       <c r="J458" s="2" t="s">
         <v>29</v>
@@ -34084,10 +34099,10 @@
         <v>31</v>
       </c>
       <c r="N458" s="2" t="s">
-        <v>838</v>
+        <v>45</v>
       </c>
       <c r="O458" s="2" t="s">
-        <v>370</v>
+        <v>49</v>
       </c>
       <c r="P458" s="2" t="s">
         <v>33</v>
@@ -34128,16 +34143,16 @@
         <v>835</v>
       </c>
       <c r="F459" s="2" t="s">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="G459" s="1" t="s">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="H459" s="1" t="s">
-        <v>39</v>
+        <v>125</v>
       </c>
       <c r="I459" s="1" t="s">
-        <v>39</v>
+        <v>126</v>
       </c>
       <c r="J459" s="2" t="s">
         <v>29</v>
@@ -34152,13 +34167,13 @@
         <v>31</v>
       </c>
       <c r="N459" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="O459" s="2" t="s">
         <v>839</v>
       </c>
-      <c r="O459" s="2" t="s">
-        <v>840</v>
-      </c>
       <c r="P459" s="2" t="s">
-        <v>396</v>
+        <v>33</v>
       </c>
       <c r="Q459" s="2" t="s">
         <v>33</v>
@@ -34190,22 +34205,22 @@
         <v>22</v>
       </c>
       <c r="D460" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E460" s="2" t="s">
         <v>835</v>
       </c>
       <c r="F460" s="2" t="s">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="G460" s="1" t="s">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="H460" s="1" t="s">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="I460" s="1" t="s">
-        <v>139</v>
+        <v>39</v>
       </c>
       <c r="J460" s="2" t="s">
         <v>29</v>
@@ -34220,10 +34235,10 @@
         <v>31</v>
       </c>
       <c r="N460" s="2" t="s">
-        <v>720</v>
+        <v>841</v>
       </c>
       <c r="O460" s="2" t="s">
-        <v>630</v>
+        <v>842</v>
       </c>
       <c r="P460" s="2" t="s">
         <v>33</v>
@@ -34238,7 +34253,7 @@
         <v>33</v>
       </c>
       <c r="T460" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="U460" s="1" t="s">
         <v>34</v>
@@ -34258,22 +34273,22 @@
         <v>22</v>
       </c>
       <c r="D461" s="2" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="E461" s="2" t="s">
         <v>835</v>
       </c>
       <c r="F461" s="2" t="s">
-        <v>238</v>
+        <v>136</v>
       </c>
       <c r="G461" s="1" t="s">
-        <v>796</v>
+        <v>137</v>
       </c>
       <c r="H461" s="1" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
       <c r="I461" s="1" t="s">
-        <v>797</v>
+        <v>139</v>
       </c>
       <c r="J461" s="2" t="s">
         <v>29</v>
@@ -34288,25 +34303,25 @@
         <v>31</v>
       </c>
       <c r="N461" s="2" t="s">
-        <v>33</v>
+        <v>720</v>
       </c>
       <c r="O461" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="P461" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q461" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R461" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S461" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T461" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="P461" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q461" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R461" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S461" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T461" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="U461" s="1" t="s">
         <v>34</v>
@@ -34326,22 +34341,22 @@
         <v>22</v>
       </c>
       <c r="D462" s="2" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="E462" s="2" t="s">
         <v>835</v>
       </c>
       <c r="F462" s="2" t="s">
-        <v>156</v>
+        <v>238</v>
       </c>
       <c r="G462" s="1" t="s">
-        <v>157</v>
+        <v>796</v>
       </c>
       <c r="H462" s="1" t="s">
-        <v>158</v>
+        <v>797</v>
       </c>
       <c r="I462" s="1" t="s">
-        <v>158</v>
+        <v>797</v>
       </c>
       <c r="J462" s="2" t="s">
         <v>29</v>
@@ -34356,13 +34371,13 @@
         <v>31</v>
       </c>
       <c r="N462" s="2" t="s">
-        <v>844</v>
+        <v>33</v>
       </c>
       <c r="O462" s="2" t="s">
-        <v>202</v>
+        <v>45</v>
       </c>
       <c r="P462" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="Q462" s="2" t="s">
         <v>33</v>
@@ -34400,16 +34415,16 @@
         <v>835</v>
       </c>
       <c r="F463" s="2" t="s">
-        <v>239</v>
+        <v>156</v>
       </c>
       <c r="G463" s="1" t="s">
-        <v>240</v>
+        <v>157</v>
       </c>
       <c r="H463" s="1" t="s">
-        <v>241</v>
+        <v>158</v>
       </c>
       <c r="I463" s="1" t="s">
-        <v>241</v>
+        <v>158</v>
       </c>
       <c r="J463" s="2" t="s">
         <v>29</v>
@@ -34424,10 +34439,10 @@
         <v>31</v>
       </c>
       <c r="N463" s="2" t="s">
-        <v>66</v>
+        <v>846</v>
       </c>
       <c r="O463" s="2" t="s">
-        <v>53</v>
+        <v>202</v>
       </c>
       <c r="P463" s="2" t="s">
         <v>33</v>
@@ -34468,16 +34483,16 @@
         <v>835</v>
       </c>
       <c r="F464" s="2" t="s">
-        <v>283</v>
+        <v>239</v>
       </c>
       <c r="G464" s="1" t="s">
-        <v>631</v>
+        <v>240</v>
       </c>
       <c r="H464" s="1" t="s">
-        <v>632</v>
+        <v>241</v>
       </c>
       <c r="I464" s="1" t="s">
-        <v>633</v>
+        <v>241</v>
       </c>
       <c r="J464" s="2" t="s">
         <v>29</v>
@@ -34492,10 +34507,10 @@
         <v>31</v>
       </c>
       <c r="N464" s="2" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="O464" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="P464" s="2" t="s">
         <v>33</v>
@@ -34530,22 +34545,22 @@
         <v>22</v>
       </c>
       <c r="D465" s="2" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="E465" s="2" t="s">
         <v>835</v>
       </c>
       <c r="F465" s="2" t="s">
-        <v>89</v>
+        <v>283</v>
       </c>
       <c r="G465" s="1" t="s">
-        <v>90</v>
+        <v>631</v>
       </c>
       <c r="H465" s="1" t="s">
-        <v>91</v>
+        <v>632</v>
       </c>
       <c r="I465" s="1" t="s">
-        <v>91</v>
+        <v>633</v>
       </c>
       <c r="J465" s="2" t="s">
         <v>29</v>
@@ -34560,13 +34575,13 @@
         <v>31</v>
       </c>
       <c r="N465" s="2" t="s">
-        <v>847</v>
+        <v>33</v>
       </c>
       <c r="O465" s="2" t="s">
-        <v>252</v>
+        <v>45</v>
       </c>
       <c r="P465" s="2" t="s">
-        <v>438</v>
+        <v>33</v>
       </c>
       <c r="Q465" s="2" t="s">
         <v>33</v>
@@ -34604,16 +34619,16 @@
         <v>835</v>
       </c>
       <c r="F466" s="2" t="s">
-        <v>107</v>
+        <v>333</v>
       </c>
       <c r="G466" s="1" t="s">
-        <v>108</v>
+        <v>486</v>
       </c>
       <c r="H466" s="1" t="s">
-        <v>109</v>
+        <v>487</v>
       </c>
       <c r="I466" s="1" t="s">
-        <v>110</v>
+        <v>488</v>
       </c>
       <c r="J466" s="2" t="s">
         <v>29</v>
@@ -34628,10 +34643,10 @@
         <v>31</v>
       </c>
       <c r="N466" s="2" t="s">
-        <v>274</v>
+        <v>33</v>
       </c>
       <c r="O466" s="2" t="s">
-        <v>687</v>
+        <v>45</v>
       </c>
       <c r="P466" s="2" t="s">
         <v>33</v>
@@ -34672,16 +34687,16 @@
         <v>835</v>
       </c>
       <c r="F467" s="2" t="s">
-        <v>255</v>
+        <v>89</v>
       </c>
       <c r="G467" s="1" t="s">
-        <v>256</v>
+        <v>90</v>
       </c>
       <c r="H467" s="1" t="s">
-        <v>257</v>
+        <v>91</v>
       </c>
       <c r="I467" s="1" t="s">
-        <v>257</v>
+        <v>91</v>
       </c>
       <c r="J467" s="2" t="s">
         <v>29</v>
@@ -34699,10 +34714,10 @@
         <v>850</v>
       </c>
       <c r="O467" s="2" t="s">
-        <v>787</v>
+        <v>333</v>
       </c>
       <c r="P467" s="2" t="s">
-        <v>33</v>
+        <v>851</v>
       </c>
       <c r="Q467" s="2" t="s">
         <v>33</v>
@@ -34734,22 +34749,22 @@
         <v>22</v>
       </c>
       <c r="D468" s="2" t="s">
-        <v>851</v>
+        <v>838</v>
       </c>
       <c r="E468" s="2" t="s">
         <v>835</v>
       </c>
       <c r="F468" s="2" t="s">
-        <v>394</v>
+        <v>107</v>
       </c>
       <c r="G468" s="1" t="s">
-        <v>521</v>
+        <v>108</v>
       </c>
       <c r="H468" s="1" t="s">
-        <v>522</v>
+        <v>109</v>
       </c>
       <c r="I468" s="1" t="s">
-        <v>523</v>
+        <v>110</v>
       </c>
       <c r="J468" s="2" t="s">
         <v>29</v>
@@ -34764,10 +34779,10 @@
         <v>31</v>
       </c>
       <c r="N468" s="2" t="s">
-        <v>33</v>
+        <v>273</v>
       </c>
       <c r="O468" s="2" t="s">
-        <v>33</v>
+        <v>852</v>
       </c>
       <c r="P468" s="2" t="s">
         <v>33</v>
@@ -34782,7 +34797,7 @@
         <v>33</v>
       </c>
       <c r="T468" s="2" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="U468" s="1" t="s">
         <v>34</v>
@@ -34802,22 +34817,22 @@
         <v>22</v>
       </c>
       <c r="D469" s="2" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="E469" s="2" t="s">
         <v>835</v>
       </c>
       <c r="F469" s="2" t="s">
-        <v>29</v>
+        <v>255</v>
       </c>
       <c r="G469" s="1" t="s">
-        <v>30</v>
+        <v>256</v>
       </c>
       <c r="H469" s="1" t="s">
-        <v>31</v>
+        <v>257</v>
       </c>
       <c r="I469" s="1" t="s">
-        <v>31</v>
+        <v>257</v>
       </c>
       <c r="J469" s="2" t="s">
         <v>29</v>
@@ -34832,16 +34847,16 @@
         <v>31</v>
       </c>
       <c r="N469" s="2" t="s">
-        <v>33</v>
+        <v>854</v>
       </c>
       <c r="O469" s="2" t="s">
-        <v>33</v>
+        <v>812</v>
       </c>
       <c r="P469" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q469" s="2" t="s">
-        <v>833</v>
+        <v>33</v>
       </c>
       <c r="R469" s="2" t="s">
         <v>33</v>
@@ -34856,6 +34871,142 @@
         <v>34</v>
       </c>
       <c r="V469" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C470" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D470" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="E470" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="F470" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="G470" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="H470" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="I470" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J470" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K470" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L470" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M470" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N470" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O470" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P470" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q470" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R470" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S470" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T470" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="U470" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V470" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C471" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D471" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="E471" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="F471" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G471" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H471" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I471" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J471" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K471" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L471" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M471" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N471" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O471" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P471" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q471" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="R471" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S471" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T471" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U471" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V471" s="2" t="s">
         <v>33</v>
       </c>
     </row>
